--- a/system.xlsx
+++ b/system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PS\KARTADROGOWASTRONA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4E073-805A-4965-869A-4F651FCE2F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AF5527-1E45-461C-8F08-067FF3BD5DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,64 +27,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Grzegorz Pawel Szczerbicki</t>
-  </si>
-  <si>
-    <t>Kamil Wegrzyniak</t>
-  </si>
-  <si>
-    <t>Grzegorz Niklewicz</t>
-  </si>
-  <si>
-    <t>Daniel Dawid Krol</t>
-  </si>
-  <si>
-    <t>Jeznach Marcin Sebastian</t>
-  </si>
-  <si>
-    <t>Goralczyk Marcin</t>
-  </si>
-  <si>
-    <t>Bogdan Kotus Marcin</t>
-  </si>
-  <si>
-    <t>Boleslaw Kowalski Zbigniew</t>
-  </si>
-  <si>
-    <t>Gajda Marek Tomasz</t>
-  </si>
-  <si>
-    <t>Arkadiusz Pachucki</t>
-  </si>
-  <si>
-    <t>Mikolajczyk Tomasz</t>
-  </si>
-  <si>
-    <t>Franciszek Rataj Wojciech</t>
-  </si>
-  <si>
-    <t>Gawecki Mariusz Pawel</t>
-  </si>
-  <si>
-    <t>Deron Norbert</t>
-  </si>
-  <si>
-    <t>Czekaliĺ„ski Paweĺ‚</t>
-  </si>
-  <si>
-    <t>Andrii Poludniev</t>
-  </si>
-  <si>
-    <t>Bartnikowski Jaroslaw</t>
-  </si>
-  <si>
     <t>Duszczyk Marcin</t>
   </si>
   <si>
-    <t>Dariusz Radzieta</t>
-  </si>
-  <si>
-    <t>Kalucki Kazimierz Leslaw</t>
+    <t>Szczerbicki Grzegorz</t>
+  </si>
+  <si>
+    <t>Węgrzyniak Kamil</t>
+  </si>
+  <si>
+    <t>Niklewicz Grzegorz</t>
+  </si>
+  <si>
+    <t>Król Dawid</t>
+  </si>
+  <si>
+    <t>Jezach Marcin</t>
+  </si>
+  <si>
+    <t>Góralczyk Marcin</t>
+  </si>
+  <si>
+    <t>Kotus Bogdan</t>
+  </si>
+  <si>
+    <t>Kowalski Zbigniew</t>
+  </si>
+  <si>
+    <t>Gajda Tomasz</t>
+  </si>
+  <si>
+    <t>Pachucki Arkadiusz</t>
+  </si>
+  <si>
+    <t>Mikołajczyk Tomasz</t>
+  </si>
+  <si>
+    <t>Rataj Wojciech</t>
+  </si>
+  <si>
+    <t>Gawęcki Mariusz</t>
+  </si>
+  <si>
+    <t>Deroń Norbert</t>
+  </si>
+  <si>
+    <t>Czekaliński Paweł</t>
+  </si>
+  <si>
+    <t>Poludniev Andrii</t>
+  </si>
+  <si>
+    <t>Bartnikowski Jarosław</t>
+  </si>
+  <si>
+    <t>Radzięta Dariusz</t>
+  </si>
+  <si>
+    <t>Kałucki Lesław</t>
   </si>
 </sst>
 </file>
@@ -405,99 +405,102 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
